--- a/data/trans_orig/P36BPD05_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD05_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>144697</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>123058</v>
+        <v>123699</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>168528</v>
+        <v>167912</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2627908073971886</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2234910635606909</v>
+        <v>0.2246542434923619</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3060710088040215</v>
+        <v>0.3049523846584185</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>136</v>
@@ -762,19 +762,19 @@
         <v>98208</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84365</v>
+        <v>82225</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115179</v>
+        <v>114074</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2013286571602979</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1729510089613592</v>
+        <v>0.1685628074931811</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2361200046392658</v>
+        <v>0.2338548820365666</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>275</v>
@@ -783,19 +783,19 @@
         <v>242905</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>216747</v>
+        <v>216547</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>269238</v>
+        <v>269745</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2339188397151441</v>
+        <v>0.233918839715144</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2087286485271733</v>
+        <v>0.2085362022716634</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2592775815486102</v>
+        <v>0.2597653714246671</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>405921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>382090</v>
+        <v>382706</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427560</v>
+        <v>426919</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7372091926028116</v>
+        <v>0.7372091926028115</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6939289911959784</v>
+        <v>0.6950476153415817</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7765089364393091</v>
+        <v>0.7753457565076379</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>549</v>
@@ -833,19 +833,19 @@
         <v>389590</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>372619</v>
+        <v>373724</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>403433</v>
+        <v>405573</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.798671342839702</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.763879995360734</v>
+        <v>0.7661451179634334</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8270489910386407</v>
+        <v>0.8314371925068188</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>964</v>
@@ -854,19 +854,19 @@
         <v>795511</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>769178</v>
+        <v>768671</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>821669</v>
+        <v>821869</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.766081160284856</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7407224184513898</v>
+        <v>0.7402346285753332</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7912713514728267</v>
+        <v>0.7914637977283369</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>132740</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>111650</v>
+        <v>113251</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>154844</v>
+        <v>154348</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2750875936933482</v>
+        <v>0.2750875936933481</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2313811204241113</v>
+        <v>0.234700007458661</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3208971028247072</v>
+        <v>0.3198690048313222</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>135</v>
@@ -979,19 +979,19 @@
         <v>104654</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>88573</v>
+        <v>90764</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>120194</v>
+        <v>122109</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2485351144349377</v>
+        <v>0.2485351144349378</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2103450394763621</v>
+        <v>0.2155488023148746</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2854392635591958</v>
+        <v>0.2899880709017899</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>265</v>
@@ -1000,19 +1000,19 @@
         <v>237394</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>210228</v>
+        <v>212425</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>264615</v>
+        <v>263439</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.262714240266891</v>
+        <v>0.2627142402668909</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2326509823554288</v>
+        <v>0.2350828357768044</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2928394278699138</v>
+        <v>0.2915380251606606</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>349796</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>327692</v>
+        <v>328188</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>370886</v>
+        <v>369285</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7249124063066519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6791028971752919</v>
+        <v>0.6801309951686778</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7686188795758886</v>
+        <v>0.765299992541339</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>452</v>
@@ -1050,19 +1050,19 @@
         <v>316429</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>300889</v>
+        <v>298974</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>332510</v>
+        <v>330319</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7514648855650622</v>
+        <v>0.7514648855650623</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.714560736440804</v>
+        <v>0.7100119290982103</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7896549605236379</v>
+        <v>0.7844511976851254</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>802</v>
@@ -1071,19 +1071,19 @@
         <v>666225</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>639004</v>
+        <v>640180</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>693391</v>
+        <v>691194</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7372857597331091</v>
+        <v>0.7372857597331089</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7071605721300862</v>
+        <v>0.7084619748393394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7673490176445714</v>
+        <v>0.7649171642231956</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>157402</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133783</v>
+        <v>136968</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>177276</v>
+        <v>180293</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3360753872717535</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2856453538879382</v>
+        <v>0.2924477656845887</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3785105305470621</v>
+        <v>0.3849528969627446</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -1196,19 +1196,19 @@
         <v>48227</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37848</v>
+        <v>38484</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58800</v>
+        <v>59402</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2579979954844375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.202471307701854</v>
+        <v>0.2058723757915182</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3145567043837496</v>
+        <v>0.3177760769146512</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>228</v>
@@ -1217,19 +1217,19 @@
         <v>205629</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>183002</v>
+        <v>183072</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>230324</v>
+        <v>233263</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3138026277422049</v>
+        <v>0.313802627742205</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2792730394776813</v>
+        <v>0.2793790933284576</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3514887828217562</v>
+        <v>0.3559746233121594</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>310950</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>291076</v>
+        <v>288059</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>334569</v>
+        <v>331384</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6639246127282463</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6214894694529378</v>
+        <v>0.6150471030372555</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7143546461120617</v>
+        <v>0.7075522343154114</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>218</v>
@@ -1267,19 +1267,19 @@
         <v>138702</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>128129</v>
+        <v>127527</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>149081</v>
+        <v>148445</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7420020045155625</v>
+        <v>0.7420020045155624</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6854432956162505</v>
+        <v>0.682223923085349</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7975286922981459</v>
+        <v>0.7941276242084818</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>545</v>
@@ -1288,19 +1288,19 @@
         <v>449651</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>424956</v>
+        <v>422017</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>472278</v>
+        <v>472208</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6861973722577951</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6485112171782437</v>
+        <v>0.6440253766878407</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7207269605223184</v>
+        <v>0.720620906671542</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>398673</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>363720</v>
+        <v>363722</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>432105</v>
+        <v>435026</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3522336278109663</v>
+        <v>0.3522336278109664</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3213522961897231</v>
+        <v>0.3213534794135069</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3817710443310376</v>
+        <v>0.3843521561299135</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>315</v>
@@ -1413,19 +1413,19 @@
         <v>243493</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>220170</v>
+        <v>220588</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>267476</v>
+        <v>269470</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2836512182209921</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.256481873353813</v>
+        <v>0.2569677730990656</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3115896705016382</v>
+        <v>0.3139120099600262</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>677</v>
@@ -1434,19 +1434,19 @@
         <v>642166</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>601497</v>
+        <v>598379</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>682749</v>
+        <v>686179</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3226532597553489</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3022191835275856</v>
+        <v>0.3006523065060171</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3430439269186928</v>
+        <v>0.3447672390742161</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>733170</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>699738</v>
+        <v>696817</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>768123</v>
+        <v>768121</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6477663721890337</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6182289556689624</v>
+        <v>0.6156478438700865</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6786477038102772</v>
+        <v>0.678646520586493</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>911</v>
@@ -1484,19 +1484,19 @@
         <v>614932</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>590949</v>
+        <v>588955</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>638255</v>
+        <v>637837</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7163487817790081</v>
+        <v>0.7163487817790077</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6884103294983618</v>
+        <v>0.6860879900399739</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.743518126646187</v>
+        <v>0.7430322269009345</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1667</v>
@@ -1505,19 +1505,19 @@
         <v>1348102</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1307519</v>
+        <v>1304089</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1388771</v>
+        <v>1391889</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6773467402446511</v>
+        <v>0.6773467402446512</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6569560730813071</v>
+        <v>0.6552327609257838</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6977808164724142</v>
+        <v>0.6993476934939827</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>198874</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>173412</v>
+        <v>174602</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>227330</v>
+        <v>226986</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3523840117572143</v>
+        <v>0.3523840117572142</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3072687658684853</v>
+        <v>0.3093765284147919</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4028051391369709</v>
+        <v>0.4021962838375918</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>356</v>
@@ -1630,19 +1630,19 @@
         <v>249553</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>226223</v>
+        <v>229038</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>272654</v>
+        <v>272330</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3010346260472556</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2728923437989709</v>
+        <v>0.2762876120706141</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3289017057848921</v>
+        <v>0.3285113103268078</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>533</v>
@@ -1651,19 +1651,19 @@
         <v>448427</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>416006</v>
+        <v>414051</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>481774</v>
+        <v>483596</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3218333450138188</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2985653142916245</v>
+        <v>0.2971622705507091</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3457660899213981</v>
+        <v>0.3470738653731891</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>365493</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>337037</v>
+        <v>337381</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>390955</v>
+        <v>389765</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6476159882427859</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5971948608630293</v>
+        <v>0.5978037161624081</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6927312341315148</v>
+        <v>0.690623471585208</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>931</v>
@@ -1701,19 +1701,19 @@
         <v>579430</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>556329</v>
+        <v>556653</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>602760</v>
+        <v>599945</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6989653739527444</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6710982942151077</v>
+        <v>0.6714886896731919</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7271076562010287</v>
+        <v>0.7237123879293859</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1296</v>
@@ -1722,19 +1722,19 @@
         <v>944924</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>911577</v>
+        <v>909755</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>977345</v>
+        <v>979300</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6781666549861812</v>
+        <v>0.6781666549861811</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6542339100786023</v>
+        <v>0.6529261346268109</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7014346857083755</v>
+        <v>0.7028377294492908</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>79051</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56968</v>
+        <v>59475</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>102720</v>
+        <v>104854</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3332283466659848</v>
+        <v>0.3332283466659847</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2401409517521801</v>
+        <v>0.2507086082049459</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.433000479680466</v>
+        <v>0.4419969129181042</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>323</v>
@@ -1847,19 +1847,19 @@
         <v>264726</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>241095</v>
+        <v>239788</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>293219</v>
+        <v>291626</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3141488824592298</v>
+        <v>0.3141488824592297</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2861055343238472</v>
+        <v>0.2845544709959853</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3479613611775726</v>
+        <v>0.3460705879768432</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>360</v>
@@ -1868,19 +1868,19 @@
         <v>343777</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>310534</v>
+        <v>310744</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>378139</v>
+        <v>380962</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3183401540664127</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2875565130376981</v>
+        <v>0.287751285336187</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3501590051357356</v>
+        <v>0.3527729789006278</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>158177</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>134508</v>
+        <v>132374</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>180260</v>
+        <v>177753</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6667716533340153</v>
+        <v>0.6667716533340152</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5669995203195342</v>
+        <v>0.5580030870818957</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7598590482478197</v>
+        <v>0.7492913917950543</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>833</v>
@@ -1918,19 +1918,19 @@
         <v>577952</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>549459</v>
+        <v>551052</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>601583</v>
+        <v>602890</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6858511175407702</v>
+        <v>0.6858511175407703</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6520386388224273</v>
+        <v>0.6539294120231568</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7138944656761528</v>
+        <v>0.7154455290040148</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>908</v>
@@ -1939,19 +1939,19 @@
         <v>736129</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>701767</v>
+        <v>698944</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>769372</v>
+        <v>769162</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6816598459335872</v>
+        <v>0.6816598459335871</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6498409948642644</v>
+        <v>0.6472270210993724</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.712443486962302</v>
+        <v>0.7122487146638129</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>1111436</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1048843</v>
+        <v>1055054</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1172921</v>
+        <v>1171962</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3235676486234637</v>
+        <v>0.3235676486234636</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3053450558368362</v>
+        <v>0.3071533728418744</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3414675097715317</v>
+        <v>0.3411882612690346</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1335</v>
@@ -2064,19 +2064,19 @@
         <v>1008861</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>959289</v>
+        <v>961680</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1057828</v>
+        <v>1060145</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2782377590459602</v>
+        <v>0.2782377590459603</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.264566064500637</v>
+        <v>0.2652253757580039</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2917425205442676</v>
+        <v>0.2923815056969956</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2338</v>
@@ -2085,19 +2085,19 @@
         <v>2120298</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2040009</v>
+        <v>2043562</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2202801</v>
+        <v>2201135</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.300289755691319</v>
+        <v>0.3002897556913191</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2889187406842622</v>
+        <v>0.2894220316543336</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3119743980048315</v>
+        <v>0.3117384802691067</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>2323507</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2262022</v>
+        <v>2262981</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2386100</v>
+        <v>2379889</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6764323513765363</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6585324902284684</v>
+        <v>0.6588117387309654</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6946549441631639</v>
+        <v>0.6928466271581256</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3894</v>
@@ -2135,19 +2135,19 @@
         <v>2617035</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2568068</v>
+        <v>2565751</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2666607</v>
+        <v>2664216</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.72176224095404</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7082574794557324</v>
+        <v>0.7076184943030045</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7354339354993631</v>
+        <v>0.7347746242419962</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6182</v>
@@ -2156,19 +2156,19 @@
         <v>4940541</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4858038</v>
+        <v>4859704</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5020830</v>
+        <v>5017277</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6997102443086808</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6880256019951687</v>
+        <v>0.6882615197308933</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7110812593157378</v>
+        <v>0.7105779683456664</v>
       </c>
     </row>
     <row r="24">
